--- a/Stats_Assessment.xlsx
+++ b/Stats_Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamrot/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamrot/Desktop/assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA77F2-1F7B-6D44-A822-B6F83120F8CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40D90CB-9574-2646-9235-6008231AF13D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18000" windowHeight="14720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t xml:space="preserve">Your assessment score will be based on whether you know how to use EXCEL to calculate mean, median,variance, standard deviation, IQR,etc. w/o using Excel's internal functions for these measures. </t>
   </si>
@@ -232,18 +232,62 @@
   </si>
   <si>
     <t>bowl 1</t>
+  </si>
+  <si>
+    <t>13/52</t>
+  </si>
+  <si>
+    <t>x-mean</t>
+  </si>
+  <si>
+    <t>(x-mean) sqr</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>No of Transaction</t>
+  </si>
+  <si>
+    <t>x - mean</t>
+  </si>
+  <si>
+    <t>(x - mean) sqr</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>x * p(x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +319,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +339,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -313,12 +387,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,10 +420,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -693,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,6 +916,17 @@
         <v>2.25</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f>1/13</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -826,10 +934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D588B7-A947-44D0-A527-0E0F3C3BE44A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,19 +947,20 @@
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -861,251 +970,174 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
-      <c r="D5">
-        <f>B5-$H$11/5</f>
-        <v>-1.3599999999999999</v>
-      </c>
-      <c r="E5">
-        <f>B5-$H$11</f>
-        <v>-6.8</v>
-      </c>
-      <c r="F5">
-        <f>E5*E5/5</f>
-        <v>9.2479999999999993</v>
-      </c>
-      <c r="G5">
-        <f>D5*D5</f>
-        <v>1.8495999999999997</v>
-      </c>
-      <c r="H5">
-        <f>G5*G5</f>
-        <v>3.421020159999999</v>
-      </c>
-      <c r="I5">
-        <f>B5-$H$11</f>
-        <v>-6.8</v>
-      </c>
-      <c r="J5">
-        <f>I5*I5/5</f>
-        <v>9.2479999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f>B5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>B5-$K$11</f>
+        <v>-1.5070422535211268</v>
+      </c>
+      <c r="M5">
+        <f>L5*L5</f>
+        <v>2.2711763538980363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
         <v>56</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">B6-$H$11/5</f>
-        <v>-0.35999999999999988</v>
-      </c>
-      <c r="E6">
-        <f>B6-$H$11</f>
-        <v>-5.8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F13" si="1">E6*E6/5</f>
-        <v>6.7279999999999998</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G9" si="2">D6*D6</f>
-        <v>0.12959999999999991</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H10" si="3">G6*G6</f>
-        <v>1.6796159999999977E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I9" si="4">B6-$H$11</f>
-        <v>-5.8</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J9" si="5">I6*I6/5</f>
-        <v>6.7279999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" ref="K6:K9" si="0">B6*C6</f>
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L9" si="1">B6-$K$11</f>
+        <v>-0.50704225352112675</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M9" si="2">L6*L6</f>
+        <v>0.25709184685578257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
         <v>33</v>
       </c>
-      <c r="D7">
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="E7">
-        <f>B7-$H$11</f>
-        <v>-4.8</v>
-      </c>
-      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="G7">
+        <v>0.49295774647887325</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
-        <v>0.40960000000000019</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.16777216000000014</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>-4.8</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>4.6079999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.24300733981352907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="E8">
-        <f>B8-$H$11</f>
-        <v>-3.8</v>
-      </c>
-      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>2.8879999999999999</v>
-      </c>
-      <c r="G8">
+        <v>1.4929577464788732</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="2"/>
-        <v>2.6896000000000004</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>7.2339481600000024</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>-3.8</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>2.8879999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.2289228327712758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>2.64</v>
-      </c>
-      <c r="E9">
-        <f>B9-$H$11</f>
-        <v>-2.8</v>
-      </c>
-      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.5679999999999998</v>
-      </c>
-      <c r="G9">
+        <v>2.492957746478873</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
-        <v>6.9696000000000007</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>48.575324160000008</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>-2.8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>1.5679999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.214838325729021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10">
-        <f>SUM(D5:D9)</f>
-        <v>3.2000000000000006</v>
-      </c>
       <c r="E10">
-        <f>B10-$H$11</f>
-        <v>-6.8</v>
+        <f t="shared" ref="E5:E10" si="3">B10-$H$11</f>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.2479999999999993</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G5:G9)</f>
-        <v>12.048000000000002</v>
-      </c>
-      <c r="H10">
-        <f>G10*G10</f>
-        <v>145.15430400000005</v>
-      </c>
-      <c r="J10">
-        <f>SUM(J5:J9)</f>
-        <v>25.040000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F6:F10" si="4">E10*E10/5</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="M10">
+        <f>SUM(M5:M9)</f>
+        <v>11.215036699067644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <f>B5+B6+B7+B8+B9/5</f>
-        <v>6.8</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="13">
+        <f>SUM(K5:K9)/SUM(C5:C9)</f>
+        <v>1.5070422535211268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="H12">
-        <v>25.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="M12" s="13">
+        <f>M10/COUNT(B5:B9)</f>
+        <v>2.2430073398135288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="H13">
-        <f>H12*H12</f>
-        <v>627.00159999999994</v>
-      </c>
+      <c r="H13" s="16"/>
+      <c r="M13" s="13">
+        <f>SQRT(M12)</f>
+        <v>1.4976672994405429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,489 +1146,512 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823D4A40-2C7C-4CED-8BEA-C2E0F2454AB1}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView zoomScale="127" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8">
-        <v>110.93333333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="15">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
-        <f>MEDIAN(A8:A22)</f>
+      <c r="H3" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10">
-        <v>-1512.0000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10">
-        <f>G4*G4</f>
-        <v>2286144.0000000019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="15">
+        <v>10.198039027185569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
-        <f>A8-$A$23/15</f>
-        <v>4.6044444444444439</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="8">
-        <f>A8-$G$2</f>
-        <v>-98.933333333333337</v>
-      </c>
-      <c r="G8">
-        <f>F8*F8/15</f>
-        <v>652.52029629629635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:B22" si="0">A9-$A$23/15</f>
-        <v>-4.3955555555555561</v>
-      </c>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9:F22" si="1">A9-$G$2</f>
-        <v>-107.93333333333334</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G22" si="2">F9*F9/15</f>
-        <v>776.64029629629636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.3955555555555561</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>-106.93333333333334</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>762.3158518518519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.3955555555555561</v>
-      </c>
-      <c r="C11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11">
+        <v>4</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>-105.93333333333334</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>748.12474074074078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6044444444444439</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12">
+        <v>5</v>
+      </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>-102.93333333333334</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>706.35140740740746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6044444444444439</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>-100.93333333333334</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>679.16918518518526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6044444444444439</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14">
+        <v>8</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>-102.93333333333334</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>706.35140740740746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.3955555555555561</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15">
+        <v>8</v>
+      </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>-105.93333333333334</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>748.12474074074078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
-        <f t="shared" si="0"/>
-        <v>12.604444444444443</v>
-      </c>
-      <c r="C16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16">
+        <v>9</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>-90.933333333333337</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>551.2580740740741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="8">
-        <f t="shared" si="0"/>
-        <v>1.6044444444444439</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17">
+        <v>10</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>-101.93333333333334</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>692.69362962962964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="8">
-        <f t="shared" si="0"/>
-        <v>-4.3955555555555561</v>
-      </c>
-      <c r="C18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18">
+        <v>10</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>-107.93333333333334</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>776.64029629629636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6044444444444439</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19">
+        <v>10</v>
+      </c>
       <c r="D19" s="8"/>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>-100.93333333333334</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>679.16918518518526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6044444444444439</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20">
+        <v>12</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>-100.93333333333334</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>679.16918518518526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="8">
-        <f t="shared" si="0"/>
-        <v>-6.3955555555555561</v>
-      </c>
-      <c r="C21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21">
+        <v>20</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>-109.93333333333334</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>805.68918518518524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>44</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" si="0"/>
-        <v>36.604444444444447</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22">
+        <v>44</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>-66.933333333333337</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>298.6714074074074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <f>A8+A9+A10+A11+A12+A13+A14+A15+A16+A17+A18+A19+A20+A21+A22/15</f>
         <v>110.93333333333334</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="8">
-        <f>SUM(F8:F22)</f>
-        <v>-1512.0000000000007</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G8:G22)</f>
-        <v>10262.888888888891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B23" s="9"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>COUNT(C8:C22)/2</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>A27*B27</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>A27-$C$38</f>
+        <v>-14.2</v>
+      </c>
+      <c r="E27">
+        <f>D27*D27</f>
+        <v>201.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C36" si="0">A28*B28</f>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D36" si="1">A28-$C$38</f>
+        <v>-12.2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E36" si="2">D28*D28</f>
+        <v>148.83999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>-11.2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>125.43999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>104.03999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>51.839999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-6.1999999999999993</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>38.439999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-5.1999999999999993</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>27.039999999999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-3.1999999999999993</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>10.239999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>23.040000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="C36">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>829.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>SUM(C27:C36)/COUNT(C27:C36)</f>
+        <v>15.2</v>
+      </c>
+      <c r="E38">
+        <f>SUM(E27:E36)/SUM(B27:B36)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f>SQRT(E38)</f>
+        <v>10.198039027185569</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C22">
+    <sortCondition ref="C8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02480A5F-A7BB-4BA3-9662-0C9B1CED90E1}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="B14:C15"/>
+    <sheetView topLeftCell="A2" zoomScale="128" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1616,20 +1671,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1637,7 +1695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -1653,7 +1711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1679,9 +1737,103 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f>C16/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E16">
+        <f>C16*D16</f>
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="F16">
+        <f>C16-$E$20</f>
+        <v>1.1111111111111107</v>
+      </c>
+      <c r="G16">
+        <f>F16*F16</f>
+        <v>1.2345679012345669</v>
+      </c>
+      <c r="H16">
+        <f>G16*D16</f>
+        <v>0.96021947873799651</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>C17/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E17">
+        <f>C17*D17</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F17">
+        <f>C17-$E$20</f>
+        <v>-3.8888888888888893</v>
+      </c>
+      <c r="G17">
+        <f>F17*F17</f>
+        <v>15.123456790123459</v>
+      </c>
+      <c r="H17">
+        <f>G17*D17</f>
+        <v>3.3607681755829906</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="15">
+        <f>SUM(E16:E17)</f>
+        <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="15">
+        <f>SUM(H16:H17)</f>
+        <v>4.3209876543209873</v>
       </c>
     </row>
   </sheetData>
@@ -1694,13 +1846,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,7 +1883,7 @@
         <v>175</v>
       </c>
       <c r="D4">
-        <f>B4+C4</f>
+        <f>SUM(B4:C4)</f>
         <v>475</v>
       </c>
     </row>
@@ -1745,7 +1898,7 @@
         <v>200</v>
       </c>
       <c r="D5">
-        <f>B5+C5</f>
+        <f>SUM(B5:C5)</f>
         <v>325</v>
       </c>
     </row>
@@ -1754,15 +1907,15 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <f>B4+B5</f>
+        <f>SUM(B4:B5)</f>
         <v>425</v>
       </c>
       <c r="C6">
-        <f>C4+C5</f>
+        <f>SUM(C4:C5)</f>
         <v>375</v>
       </c>
-      <c r="D6">
-        <f>B6+C6</f>
+      <c r="D6" s="12">
+        <f>SUM(D4:D5)</f>
         <v>800</v>
       </c>
     </row>
@@ -1775,9 +1928,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>C4-D4/D6</f>
-        <v>174.40625</v>
+      <c r="B9" s="16"/>
+      <c r="D9" s="15">
+        <f>175/C6</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,9 +1943,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>B4-D4/D6</f>
-        <v>299.40625</v>
+      <c r="B12" s="16"/>
+      <c r="D12" s="15">
+        <f>B4/D4</f>
+        <v>0.63157894736842102</v>
       </c>
     </row>
   </sheetData>
@@ -1801,45 +1956,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9416435-ADBD-4B09-B570-4E8A5F03FAC6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="139" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1849,11 +2004,16 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10"/>
+      <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G8" s="15">
+        <f>0.5 * (30/40)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1864,12 +2024,9 @@
         <f>SUM(A9+B9)</f>
         <v>30</v>
       </c>
-      <c r="D9" s="11">
-        <f>A9-C9/C11</f>
-        <v>9.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -1880,12 +2037,9 @@
         <f>SUM(A10+B10)</f>
         <v>50</v>
       </c>
-      <c r="D10" s="11">
-        <f>D9/C11</f>
-        <v>0.1203125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>A9+A10</f>
         <v>40</v>
@@ -1898,10 +2052,7 @@
         <f>SUM(C9:C10)</f>
         <v>80</v>
       </c>
-      <c r="D11" s="11">
-        <f>D10/2</f>
-        <v>6.0156250000000001E-2</v>
-      </c>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
